--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,42 +43,36 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,21 +82,21 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -121,76 +115,76 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
   </si>
   <si>
     <t>help</t>
@@ -199,18 +193,15 @@
     <t>please</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -220,9 +211,15 @@
     <t>safety</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
@@ -232,13 +229,7 @@
     <t>increase</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>shop</t>
   </si>
   <si>
     <t>corona</t>
@@ -599,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,16 +680,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8013698630136986</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.8660714285714286</v>
@@ -918,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8484848484848485</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8433420365535248</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5686274509803921</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8297872340425532</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5608465608465608</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.559322033898305</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L13">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L13">
-        <v>29</v>
-      </c>
       <c r="M13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1218,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.55</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7924528301886793</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5368217054263565</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5100671140939598</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4871794871794872</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.44</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3818181818181818</v>
+        <v>0.375</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -1486,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1568,13 +1559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3454545454545455</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2817460317460317</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2467532467532468</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6857142857142857</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2444444444444444</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1736,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6825396825396826</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1760,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,37 +1759,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1662198391420912</v>
+        <v>0.01548886737657309</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>311</v>
+        <v>3051</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6744186046511628</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,37 +1809,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.07666666666666666</v>
+        <v>0.01308411214953271</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>277</v>
+        <v>2112</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6352941176470588</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L26">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,36 +1851,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.01549386701097482</v>
-      </c>
-      <c r="C27">
-        <v>48</v>
-      </c>
-      <c r="D27">
+      <c r="J27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E27">
-        <v>0.16</v>
-      </c>
-      <c r="F27">
-        <v>0.84</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>3050</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="K27">
         <v>0.6</v>
@@ -1914,41 +1881,17 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.01404494382022472</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>0.19</v>
-      </c>
-      <c r="F28">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2106</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5899581589958159</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L28">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M28">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1960,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.5846153846153846</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1986,12 +1929,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K30">
         <v>0.5757575757575758</v>
@@ -2017,16 +1960,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5638297872340425</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2038,21 +1981,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5600000000000001</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2064,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5285714285714286</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2090,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2116,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.4705882352941176</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2142,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2168,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.3698630136986301</v>
+        <v>0.359375</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2194,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.3389830508474576</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2220,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.3205128205128205</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2246,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.3114754098360656</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2272,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.296875</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2298,59 +2241,33 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.1775700934579439</v>
+        <v>0.01349654739485248</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N42">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="O42">
-        <v>0.09999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43">
-        <v>0.01004394224733208</v>
-      </c>
-      <c r="L43">
-        <v>32</v>
-      </c>
-      <c r="M43">
-        <v>47</v>
-      </c>
-      <c r="N43">
-        <v>0.68</v>
-      </c>
-      <c r="O43">
-        <v>0.32</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>3154</v>
+        <v>3143</v>
       </c>
     </row>
   </sheetData>
